--- a/WEB-INF/Book1.xlsx
+++ b/WEB-INF/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AlejandroPlaza/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apache-tomcat-8.5.24\webapps\ProgestorSE\WEB-INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2CA95C4-DD4C-AD49-83F3-E16521B39FF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23424E04-B257-431C-9749-40AC3400EFD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="27660" windowHeight="17040" xr2:uid="{47D8B71C-15E5-A545-AE95-17DEA18DA432}"/>
+    <workbookView xWindow="105" yWindow="1410" windowWidth="20385" windowHeight="7365" xr2:uid="{47D8B71C-15E5-A545-AE95-17DEA18DA432}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>lalalal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,8 +389,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>